--- a/medicine/Enfance/Félix_Lacaille/Félix_Lacaille.xlsx
+++ b/medicine/Enfance/Félix_Lacaille/Félix_Lacaille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Lacaille</t>
+          <t>Félix_Lacaille</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Félix-Jules Lacaille est un peintre, dessinateur et illustrateur français né le 27 février 1856 à Paris, ville où il est mort le 21 septembre 1923[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Félix-Jules Lacaille est un peintre, dessinateur et illustrateur français né le 27 février 1856 à Paris, ville où il est mort le 21 septembre 1923.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Lacaille</t>
+          <t>Félix_Lacaille</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Félix Lacaille entre à l'École des beaux-arts de Paris en 1876 dans la classe d'Henri Lehmann[2]. L'année suivante, il reçoit le prix Fortin-d'Ivry au concours annuel de perspective[3]. Il suit également les cours d'Adolphe Yvon.
-En 1883, il reçoit du conseil général de la Seine une bourse de 1 200 francs, destinée aux élèves les plus pauvres[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Félix Lacaille entre à l'École des beaux-arts de Paris en 1876 dans la classe d'Henri Lehmann. L'année suivante, il reçoit le prix Fortin-d'Ivry au concours annuel de perspective. Il suit également les cours d'Adolphe Yvon.
+En 1883, il reçoit du conseil général de la Seine une bourse de 1 200 francs, destinée aux élèves les plus pauvres.
 Au milieu des années 1880, il devient illustrateur pour les éditeurs Pellerin et Quantin, ainsi que pour la maison Alfred Mame : ses dessins sont destinés à des ouvrages pour la jeunesse.
 En 1889, il devient sociétaire des artistes français et figure au Salon de ce mouvement.
 Dans les années 1900, il collabore à la Librairie des Catéchismes.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Lacaille</t>
+          <t>Félix_Lacaille</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,11 +562,13 @@
           <t>Œuvres dans les collections publiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Angoulême, Cité internationale de la bande dessinée et de l'image : L'Enfant et le Chat, série « Imagerie artistique Maison Quantin » no 4, 1887[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Angoulême, Cité internationale de la bande dessinée et de l'image : L'Enfant et le Chat, série « Imagerie artistique Maison Quantin » no 4, 1887.
 Beaune, musée des beaux-arts : Mors vitrix, 1884, huile sur toile, 300 × 182 cm.
-Flixecourt : Portrait de Jean-Baptiste Saint, 1882, huile sur toile[6].
+Flixecourt : Portrait de Jean-Baptiste Saint, 1882, huile sur toile.
 Paris, École nationale supérieure des beaux-arts :
 Le Jugement de Salomon, 1877, huile sur toile, 33 × 41 cm ;
 Figure peinte [homme nu], 1877, huile sur toile, 81 × 61 cm ;
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F%C3%A9lix_Lacaille</t>
+          <t>Félix_Lacaille</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,7 +607,9 @@
           <t>Ouvrages illustrés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Armand Silvestre, Contes de derrière les fagots, Paris, Marpon &amp; Flammarion, 1886.
 Abbé Gobat, Miralda la petite négresse ou le rossignol noir de La Havane, Tours, Alfred mame, 1894.
